--- a/que5.xlsx
+++ b/que5.xlsx
@@ -144,41 +144,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="50"/>
-      <c:rotY val="110"/>
+      <c:rotX val="30"/>
+      <c:rotY val="120"/>
       <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
@@ -220,10 +189,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.72424719637318E-2"/>
-          <c:y val="6.7308927424534357E-2"/>
-          <c:w val="0.87298783106657118"/>
-          <c:h val="0.81483592007646444"/>
+          <c:x val="5.9006060606060604E-2"/>
+          <c:y val="4.6756583172768144E-2"/>
+          <c:w val="0.88785129727636503"/>
+          <c:h val="0.84124941886011473"/>
         </c:manualLayout>
       </c:layout>
       <c:surface3DChart>
@@ -1336,12 +1305,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="627271224"/>
-        <c:axId val="627274752"/>
-        <c:axId val="624062592"/>
+        <c:axId val="562614936"/>
+        <c:axId val="571527592"/>
+        <c:axId val="474575312"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="627271224"/>
+        <c:axId val="562614936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1352,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627274752"/>
+        <c:crossAx val="571527592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,26 +1360,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627274752"/>
+        <c:axId val="571527592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1442,12 +1397,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627271224"/>
+        <c:crossAx val="562614936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="624062592"/>
+        <c:axId val="474575312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,161 +1444,19 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627274752"/>
+        <c:crossAx val="571527592"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1676,41 +1489,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="90"/>
+      <c:rotX val="30"/>
+      <c:rotY val="120"/>
       <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
@@ -1749,7 +1531,7 @@
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="1"/>
+        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3774,12 +3556,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="617487672"/>
-        <c:axId val="617481400"/>
-        <c:axId val="486131792"/>
+        <c:axId val="571522104"/>
+        <c:axId val="571530728"/>
+        <c:axId val="571597456"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="617487672"/>
+        <c:axId val="571522104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3603,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617481400"/>
+        <c:crossAx val="571530728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,26 +3611,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617481400"/>
+        <c:axId val="571530728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3880,12 +3648,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617487672"/>
+        <c:crossAx val="571522104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="486131792"/>
+        <c:axId val="571597456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,7 +3695,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617481400"/>
+        <c:crossAx val="571530728"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3938,38 +3706,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -3979,12 +3715,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4021,41 +3752,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="110"/>
+      <c:rotX val="30"/>
+      <c:rotY val="120"/>
       <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
@@ -5367,12 +5067,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="617460624"/>
-        <c:axId val="617465720"/>
-        <c:axId val="593447648"/>
+        <c:axId val="571525632"/>
+        <c:axId val="571520928"/>
+        <c:axId val="571734824"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="617460624"/>
+        <c:axId val="571525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5114,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617465720"/>
+        <c:crossAx val="571520928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5422,26 +5122,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617465720"/>
+        <c:axId val="571520928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5473,12 +5159,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617460624"/>
+        <c:crossAx val="571525632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="593447648"/>
+        <c:axId val="571734824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5520,230 +5206,19 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617465720"/>
+        <c:crossAx val="571520928"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5767,15 +5242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5804,15 +5279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5838,16 +5313,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6137,7 +5612,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7029,7 +6504,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8965,7 +8440,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/que5.xlsx
+++ b/que5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxl11_000\Desktop\yu-c-ws\kk2rep2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\大学関係\計算工学2\kk2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="c=1.0" sheetId="1" r:id="rId2"/>
     <sheet name="c=4.0" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -189,8 +189,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9006060606060604E-2"/>
-          <c:y val="4.6756583172768144E-2"/>
+          <c:x val="7.3420444066113352E-2"/>
+          <c:y val="4.6756585886044089E-2"/>
           <c:w val="0.88785129727636503"/>
           <c:h val="0.84124941886011473"/>
         </c:manualLayout>
@@ -210,10 +210,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$2:$J$2</c:f>
+              <c:f>'c=9.0'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -236,14 +236,16 @@
                   <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5000000000000084E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -258,10 +260,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$3:$J$3</c:f>
+              <c:f>'c=9.0'!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -281,17 +283,19 @@
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3500000000000007E-2</c:v>
+                  <c:v>1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -306,10 +310,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$4:$J$4</c:f>
+              <c:f>'c=9.0'!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -326,20 +330,22 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9500000000000012E-2</c:v>
+                  <c:v>2.4750000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4000000000000004E-2</c:v>
+                  <c:v>1.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -354,10 +360,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$5:$J$5</c:f>
+              <c:f>'c=9.0'!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -371,23 +377,25 @@
                   <c:v>9.000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7500000000000009E-2</c:v>
+                  <c:v>1.2750000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000005E-2</c:v>
+                  <c:v>1.1999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -402,10 +410,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$6:$J$6</c:f>
+              <c:f>'c=9.0'!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -416,26 +424,28 @@
                   <c:v>-1.199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.9999999999999932E-3</c:v>
+                  <c:v>-1.2749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.9999999999999941E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>-5.9999999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000000000000007E-2</c:v>
+                  <c:v>-3.0000000000000061E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000053E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -450,10 +460,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$7:$J$7</c:f>
+              <c:f>'c=9.0'!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -461,29 +471,31 @@
                   <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.02</c:v>
+                  <c:v>-2.4750000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0999999999999998E-2</c:v>
+                  <c:v>-2.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7500000000000002E-2</c:v>
+                  <c:v>-3.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.9999999999999976E-3</c:v>
+                  <c:v>-2.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9999999999999984E-3</c:v>
+                  <c:v>-1.2000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.9999999999999975E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -500,40 +512,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$8:$J$8</c:f>
+              <c:f>'c=9.0'!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3999999999999999E-2</c:v>
+                  <c:v>-1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4000000000000007E-2</c:v>
+                  <c:v>-3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9500000000000012E-2</c:v>
+                  <c:v>-4.3500000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9999999999999995E-2</c:v>
+                  <c:v>-4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.15E-2</c:v>
+                  <c:v>-3.7500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4E-2</c:v>
+                  <c:v>-2.0999999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -550,40 +564,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$9:$J$9</c:f>
+              <c:f>'c=9.0'!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.000000000000008E-3</c:v>
+                  <c:v>-1.8000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.350000000000001E-2</c:v>
+                  <c:v>-3.7500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3000000000000008E-2</c:v>
+                  <c:v>-4.8000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.3500000000000011E-2</c:v>
+                  <c:v>-4.9500000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.4999999999999998E-2</c:v>
+                  <c:v>-4.1999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.7500000000000006E-2</c:v>
+                  <c:v>-2.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -600,40 +616,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$10:$J$10</c:f>
+              <c:f>'c=9.0'!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.5000000000000119E-3</c:v>
+                  <c:v>-1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8000000000000009E-2</c:v>
+                  <c:v>-3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-4.3500000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-3.7500000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.8000000000000015E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.9500000000000016E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.2000000000000003E-2</c:v>
+                  <c:v>-2.1000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -650,40 +668,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$11:$J$11</c:f>
+              <c:f>'c=9.0'!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.0000000000000011E-3</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.3500000000000004E-2</c:v>
+                  <c:v>-2.4750000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3000000000000022E-2</c:v>
+                  <c:v>-2.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.3500000000000011E-2</c:v>
+                  <c:v>-3.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5000000000000026E-2</c:v>
+                  <c:v>-2.4000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.7500000000000006E-2</c:v>
+                  <c:v>-1.2000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -700,40 +720,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$12:$J$12</c:f>
+              <c:f>'c=9.0'!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3999999999999992E-2</c:v>
+                  <c:v>-6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4000000000000014E-2</c:v>
+                  <c:v>-1.199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9500000000000012E-2</c:v>
+                  <c:v>-1.2749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.0000000000000027E-2</c:v>
+                  <c:v>-9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.15E-2</c:v>
+                  <c:v>-5.9999999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4000000000000028E-2</c:v>
+                  <c:v>-3.0000000000000027E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -750,40 +772,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$13:$J$13</c:f>
+              <c:f>'c=9.0'!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5000000000000013E-2</c:v>
+                  <c:v>3.0000000000000096E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.02</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1000000000000019E-2</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7500000000000002E-2</c:v>
+                  <c:v>1.2750000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0000000000000288E-3</c:v>
+                  <c:v>1.2000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9999999999999984E-3</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.0000000000000304E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -801,40 +825,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$14:$J$14</c:f>
+              <c:f>'c=9.0'!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0000000000000088E-3</c:v>
+                  <c:v>1.2000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2000000000000018E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.9999999999999932E-3</c:v>
+                  <c:v>3.1500000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>2.4750000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1999999999999969E-2</c:v>
+                  <c:v>1.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000053E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -852,40 +878,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$15:$J$15</c:f>
+              <c:f>'c=9.0'!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9999999999999957E-3</c:v>
+                  <c:v>2.0999999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9999999999999984E-3</c:v>
+                  <c:v>3.7500000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0000000000000011E-3</c:v>
+                  <c:v>4.5000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7500000000000009E-2</c:v>
+                  <c:v>4.3500000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0999999999999998E-2</c:v>
+                  <c:v>3.3000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -903,40 +931,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$16:$J$16</c:f>
+              <c:f>'c=9.0'!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000007E-2</c:v>
+                  <c:v>2.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4000000000000014E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15E-2</c:v>
+                  <c:v>4.9500000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>4.8000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9500000000000012E-2</c:v>
+                  <c:v>3.7500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4000000000000028E-2</c:v>
+                  <c:v>1.8000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -954,40 +984,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$17:$J$17</c:f>
+              <c:f>'c=9.0'!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1000000000000019E-2</c:v>
+                  <c:v>2.1000000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7500000000000012E-2</c:v>
+                  <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5000000000000012E-2</c:v>
+                  <c:v>4.5000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3500000000000004E-2</c:v>
+                  <c:v>4.3500000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3000000000000029E-2</c:v>
+                  <c:v>3.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3500000000000007E-2</c:v>
+                  <c:v>1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0000000000000288E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -1005,40 +1037,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$18:$J$18</c:f>
+              <c:f>'c=9.0'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5500000000000005E-2</c:v>
+                  <c:v>1.1999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000016E-2</c:v>
+                  <c:v>2.4000000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9500000000000016E-2</c:v>
+                  <c:v>3.1500000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8000000000000043E-2</c:v>
+                  <c:v>2.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7499999999999992E-2</c:v>
+                  <c:v>2.4750000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.800000000000003E-2</c:v>
+                  <c:v>1.4999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5000000000000084E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -1056,40 +1090,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$19:$J$19</c:f>
+              <c:f>'c=9.0'!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0999999999999998E-2</c:v>
+                  <c:v>3.0000000000000027E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7500000000000012E-2</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.500000000000004E-2</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3500000000000004E-2</c:v>
+                  <c:v>1.2750000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3000000000000043E-2</c:v>
+                  <c:v>1.199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3499999999999993E-2</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0000000000000011E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -1106,40 +1142,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$20:$J$20</c:f>
+              <c:f>'c=9.0'!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000007E-2</c:v>
+                  <c:v>-5.9999999999999915E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4000000000000014E-2</c:v>
+                  <c:v>-1.2000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15E-2</c:v>
+                  <c:v>-1.2749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0000000000000041E-2</c:v>
+                  <c:v>-9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9500000000000012E-2</c:v>
+                  <c:v>-5.9999999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4000000000000014E-2</c:v>
+                  <c:v>-3.0000000000000027E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3999999999999985E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -1156,40 +1194,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$21:$J$21</c:f>
+              <c:f>'c=9.0'!$B$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000165E-3</c:v>
+                  <c:v>-1.5000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9999999999999984E-3</c:v>
+                  <c:v>-2.4749999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0000000000000149E-3</c:v>
+                  <c:v>-3.0000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7500000000000009E-2</c:v>
+                  <c:v>-3.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000012E-2</c:v>
+                  <c:v>-2.3999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>-1.2000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5000000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -1206,40 +1246,42 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'c=9.0'!$B$22:$J$22</c:f>
+              <c:f>'c=9.0'!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0000000000000088E-3</c:v>
+                  <c:v>-1.8750000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1999999999999983E-2</c:v>
+                  <c:v>-3.3000000000000015E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.9999999999999932E-3</c:v>
+                  <c:v>-4.3499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-4.5000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>-3.7500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000000000000011E-2</c:v>
+                  <c:v>-2.0999999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000192E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-912A-4154-8C85-95E64A76BDD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts>
           <c:bandFmt>
@@ -1476,7 +1518,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1616,6 +1658,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1701,6 +1748,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1786,6 +1838,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1871,6 +1928,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1956,6 +2018,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2041,6 +2108,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2128,6 +2200,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2215,6 +2292,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2302,6 +2384,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2389,6 +2476,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -2476,6 +2568,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -2563,6 +2660,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -2651,6 +2753,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -2739,6 +2846,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -2827,6 +2939,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -2915,6 +3032,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -3003,6 +3125,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -3091,6 +3218,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -3178,6 +3310,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -3265,6 +3402,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -3352,6 +3494,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-639C-407A-A8D0-161B7BD55076}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts>
           <c:bandFmt>
@@ -3739,7 +3886,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3792,7 +3939,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2564054493188348E-2"/>
+          <c:y val="4.1343669250645997E-2"/>
+          <c:w val="0.90463332708411448"/>
+          <c:h val="0.86965797879916173"/>
+        </c:manualLayout>
+      </c:layout>
       <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
@@ -3848,6 +4005,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3902,6 +4064,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3956,6 +4123,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4010,6 +4182,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4064,6 +4241,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4118,6 +4300,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4174,6 +4361,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4230,6 +4422,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4286,6 +4483,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4342,6 +4544,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -4398,6 +4605,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -4454,6 +4666,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -4511,6 +4728,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -4568,6 +4790,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -4625,6 +4852,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -4682,6 +4914,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -4739,6 +4976,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -4796,6 +5038,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -4852,6 +5099,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -4908,6 +5160,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -4964,6 +5221,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-BA84-4848-8D4B-35E2241A2ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts>
           <c:bandFmt>
@@ -5241,20 +5503,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5291,7 +5559,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5313,20 +5587,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5609,21 +5889,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5649,13 +5929,10 @@
         <v>1.8</v>
       </c>
       <c r="I1" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="J1" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -5667,7 +5944,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:I2" si="0">0.05*D$1*(2-D$1)</f>
+        <f t="shared" ref="D2:H2" si="0">0.05*D$1*(2-D$1)</f>
         <v>4.1999999999999996E-2</v>
       </c>
       <c r="E2" s="3">
@@ -5686,15 +5963,11 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>9.5000000000000084E-3</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
@@ -5706,7 +5979,7 @@
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:I3" si="1">(C2+E2)/2</f>
+        <f t="shared" ref="D3:H3" si="1">(C2+E2)/2</f>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="E3" s="3">
@@ -5723,17 +5996,13 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>2.3500000000000007E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J3" s="2">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>0.2</v>
       </c>
@@ -5745,7 +6014,7 @@
         <v>1.2000000000000007E-2</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:I4" si="2">C3+E3-D2</f>
+        <f t="shared" ref="D4:H4" si="2">C3+E3-D2</f>
         <v>2.4000000000000007E-2</v>
       </c>
       <c r="E4" s="3">
@@ -5758,21 +6027,17 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="2"/>
-        <v>2.9500000000000012E-2</v>
+        <v>2.4750000000000008E-2</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="2"/>
-        <v>2.4000000000000004E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="J4" s="2">
+        <v>1.5000000000000003E-2</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>0.3</v>
       </c>
@@ -5780,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:I5" si="3">B4+D4-C3</f>
+        <f t="shared" ref="C5:H5" si="3">B4+D4-C3</f>
         <v>3.0000000000000096E-3</v>
       </c>
       <c r="D5" s="3">
@@ -5793,25 +6058,21 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>1.7500000000000009E-2</v>
+        <v>1.2750000000000004E-2</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>2.1000000000000005E-2</v>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5000000000000005E-2</v>
-      </c>
-      <c r="J5" s="2">
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>0.4</v>
       </c>
@@ -5819,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:I6" si="4">B5+D5-C4</f>
+        <f t="shared" ref="C6:H6" si="4">B5+D5-C4</f>
         <v>-6.0000000000000019E-3</v>
       </c>
       <c r="D6" s="3">
@@ -5828,29 +6089,25 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>-7.9999999999999932E-3</v>
+        <v>-1.2749999999999997E-2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8.9999999999999941E-3</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="4"/>
-        <v>8.0000000000000002E-3</v>
+        <v>-5.9999999999999984E-3</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>1.2000000000000007E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="J6" s="2">
+        <v>-3.0000000000000061E-3</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
@@ -5858,38 +6115,34 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:I7" si="5">B6+D6-C5</f>
+        <f t="shared" ref="C7:H7" si="5">B6+D6-C5</f>
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="5"/>
-        <v>-0.02</v>
+        <v>-2.4750000000000005E-2</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="5"/>
-        <v>-2.0999999999999998E-2</v>
+        <v>-2.9999999999999992E-2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="5"/>
-        <v>-1.7500000000000002E-2</v>
+        <v>-3.15E-2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="5"/>
-        <v>-8.9999999999999976E-3</v>
+        <v>-2.3999999999999997E-2</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="5"/>
-        <v>-5.9999999999999984E-3</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.9999999999999975E-3</v>
-      </c>
-      <c r="J7" s="2">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>0.6</v>
       </c>
@@ -5897,38 +6150,34 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:I8" si="6">B7+D7-C6</f>
-        <v>-1.3999999999999999E-2</v>
+        <f t="shared" ref="C8:H8" si="6">B7+D7-C6</f>
+        <v>-1.8750000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="6"/>
-        <v>-2.4000000000000007E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="6"/>
-        <v>-2.9500000000000012E-2</v>
+        <v>-4.3500000000000011E-2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="6"/>
-        <v>-2.9999999999999995E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="6"/>
-        <v>-3.15E-2</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="6"/>
-        <v>-2.4E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="6"/>
-        <v>-1.2000000000000004E-2</v>
-      </c>
-      <c r="J8" s="2">
+        <v>-2.0999999999999991E-2</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>0.7</v>
       </c>
@@ -5936,38 +6185,34 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:I9" si="7">B8+D8-C7</f>
-        <v>-9.000000000000008E-3</v>
+        <f t="shared" ref="C9:H9" si="7">B8+D8-C7</f>
+        <v>-1.8000000000000002E-2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="7"/>
-        <v>-2.350000000000001E-2</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="7"/>
-        <v>-3.3000000000000008E-2</v>
+        <v>-4.8000000000000008E-2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="7"/>
-        <v>-4.3500000000000011E-2</v>
+        <v>-4.9500000000000016E-2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="7"/>
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.1999999999999996E-2</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="7"/>
-        <v>-3.7500000000000006E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="7"/>
-        <v>-2.1000000000000005E-2</v>
-      </c>
-      <c r="J9" s="2">
+        <v>-2.5500000000000002E-2</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>0.8</v>
       </c>
@@ -5975,38 +6220,34 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:I10" si="8">B9+D9-C8</f>
-        <v>-9.5000000000000119E-3</v>
+        <f t="shared" ref="C10:H10" si="8">B9+D9-C8</f>
+        <v>-1.8750000000000003E-2</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="8"/>
-        <v>-1.8000000000000009E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="8"/>
-        <v>-3.7500000000000006E-2</v>
+        <v>-4.3500000000000011E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="8"/>
-        <v>-4.8000000000000015E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="8"/>
-        <v>-4.9500000000000016E-2</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="8"/>
-        <v>-2.5500000000000002E-2</v>
-      </c>
-      <c r="J10" s="2">
+        <v>-2.1000000000000005E-2</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>0.9</v>
       </c>
@@ -6014,38 +6255,34 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:I11" si="9">B10+D10-C9</f>
-        <v>-9.0000000000000011E-3</v>
+        <f t="shared" ref="C11:H11" si="9">B10+D10-C9</f>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="9"/>
-        <v>-2.3500000000000004E-2</v>
+        <v>-2.4750000000000008E-2</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="9"/>
-        <v>-3.3000000000000022E-2</v>
+        <v>-2.9999999999999992E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="9"/>
-        <v>-4.3500000000000011E-2</v>
+        <v>-3.15E-2</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="9"/>
-        <v>-4.5000000000000026E-2</v>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>-3.7500000000000006E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="9"/>
-        <v>-2.0999999999999998E-2</v>
-      </c>
-      <c r="J11" s="2">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -6053,38 +6290,34 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:I12" si="10">B11+D11-C10</f>
-        <v>-1.3999999999999992E-2</v>
+        <f t="shared" ref="C12:H12" si="10">B11+D11-C10</f>
+        <v>-6.0000000000000053E-3</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="10"/>
-        <v>-2.4000000000000014E-2</v>
+        <v>-1.199999999999999E-2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="10"/>
-        <v>-2.9500000000000012E-2</v>
+        <v>-1.2749999999999997E-2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="10"/>
-        <v>-3.0000000000000027E-2</v>
+        <v>-9.0000000000000011E-3</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="10"/>
-        <v>-3.15E-2</v>
+        <v>-5.9999999999999984E-3</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="10"/>
-        <v>-2.4000000000000028E-2</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="10"/>
-        <v>-1.2000000000000004E-2</v>
-      </c>
-      <c r="J12" s="2">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="I12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -6092,38 +6325,34 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:I13" si="11">B12+D12-C11</f>
-        <v>-1.5000000000000013E-2</v>
+        <f t="shared" ref="C13:H13" si="11">B12+D12-C11</f>
+        <v>3.0000000000000096E-3</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="11"/>
-        <v>-0.02</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="11"/>
-        <v>-2.1000000000000019E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="11"/>
-        <v>-1.7500000000000002E-2</v>
+        <v>1.2750000000000004E-2</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="11"/>
-        <v>-9.0000000000000288E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="11"/>
-        <v>-5.9999999999999984E-3</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.0000000000000304E-3</v>
-      </c>
-      <c r="J13" s="2">
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>1.2</v>
       </c>
@@ -6131,38 +6360,34 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:I14" si="12">B13+D13-C12</f>
-        <v>-6.0000000000000088E-3</v>
+        <f t="shared" ref="C14:H14" si="12">B13+D13-C12</f>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="12"/>
-        <v>-1.2000000000000018E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="12"/>
-        <v>-7.9999999999999932E-3</v>
+        <v>3.1500000000000007E-2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.0000000000000006E-2</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
+        <v>2.4750000000000008E-2</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="12"/>
-        <v>1.1999999999999969E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="12"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="J14" s="2">
+        <v>1.5000000000000006E-2</v>
+      </c>
+      <c r="I14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>1.3</v>
       </c>
@@ -6170,38 +6395,34 @@
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:I15" si="13">B14+D14-C13</f>
-        <v>2.9999999999999957E-3</v>
+        <f t="shared" ref="C15:H15" si="13">B14+D14-C13</f>
+        <v>2.0999999999999991E-2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="13"/>
-        <v>5.9999999999999984E-3</v>
+        <v>3.7500000000000012E-2</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="13"/>
-        <v>9.0000000000000011E-3</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="13"/>
-        <v>1.7500000000000009E-2</v>
+        <v>4.3500000000000011E-2</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="13"/>
-        <v>2.0999999999999998E-2</v>
+        <v>3.3000000000000008E-2</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="13"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="13"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J15" s="2">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>1.4</v>
       </c>
@@ -6209,38 +6430,34 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:I16" si="14">B15+D15-C14</f>
-        <v>1.2000000000000007E-2</v>
+        <f t="shared" ref="C16:H16" si="14">B15+D15-C14</f>
+        <v>2.5500000000000002E-2</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="14"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="14"/>
-        <v>3.15E-2</v>
+        <v>4.9500000000000009E-2</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="14"/>
-        <v>0.03</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="14"/>
-        <v>2.9500000000000012E-2</v>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="14"/>
-        <v>2.4000000000000028E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="14"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="J16" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="I16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -6248,38 +6465,34 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:I17" si="15">B16+D16-C15</f>
-        <v>2.1000000000000019E-2</v>
+        <f t="shared" ref="C17:H17" si="15">B16+D16-C15</f>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="15"/>
-        <v>3.7500000000000012E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="15"/>
-        <v>4.5000000000000012E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="15"/>
-        <v>4.3500000000000004E-2</v>
+        <v>4.3500000000000011E-2</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="15"/>
-        <v>3.3000000000000029E-2</v>
+        <v>3.2999999999999995E-2</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="15"/>
-        <v>2.3500000000000007E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="15"/>
-        <v>9.0000000000000288E-3</v>
-      </c>
-      <c r="J17" s="2">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>1.6</v>
       </c>
@@ -6287,38 +6500,34 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:I18" si="16">B17+D17-C16</f>
-        <v>2.5500000000000005E-2</v>
+        <f t="shared" ref="C18:H18" si="16">B17+D17-C16</f>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="16"/>
-        <v>4.2000000000000016E-2</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="16"/>
-        <v>4.9500000000000016E-2</v>
+        <v>3.1500000000000007E-2</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="16"/>
-        <v>4.8000000000000043E-2</v>
+        <v>2.9999999999999992E-2</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="16"/>
-        <v>3.7499999999999992E-2</v>
+        <v>2.4750000000000008E-2</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="16"/>
-        <v>1.800000000000003E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="16"/>
-        <v>9.5000000000000084E-3</v>
-      </c>
-      <c r="J18" s="2">
+        <v>1.4999999999999993E-2</v>
+      </c>
+      <c r="I18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>1.7</v>
       </c>
@@ -6326,38 +6535,34 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:I19" si="17">B18+D18-C17</f>
-        <v>2.0999999999999998E-2</v>
+        <f t="shared" ref="C19:H19" si="17">B18+D18-C17</f>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="17"/>
-        <v>3.7500000000000012E-2</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="17"/>
-        <v>4.500000000000004E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="17"/>
-        <v>4.3500000000000004E-2</v>
+        <v>1.2750000000000004E-2</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="17"/>
-        <v>3.3000000000000043E-2</v>
+        <v>1.199999999999999E-2</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="17"/>
-        <v>2.3499999999999993E-2</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="17"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="J19" s="2">
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="I19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>1.8</v>
       </c>
@@ -6365,38 +6570,34 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:I20" si="18">B19+D19-C18</f>
-        <v>1.2000000000000007E-2</v>
+        <f t="shared" ref="C20:H20" si="18">B19+D19-C18</f>
+        <v>-5.9999999999999915E-3</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="18"/>
-        <v>2.4000000000000014E-2</v>
+        <v>-1.2000000000000011E-2</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="18"/>
-        <v>3.15E-2</v>
+        <v>-1.2749999999999997E-2</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="18"/>
-        <v>3.0000000000000041E-2</v>
+        <v>-9.0000000000000011E-3</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="18"/>
-        <v>2.9500000000000012E-2</v>
+        <v>-5.9999999999999984E-3</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="18"/>
-        <v>2.4000000000000014E-2</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="18"/>
-        <v>1.3999999999999985E-2</v>
-      </c>
-      <c r="J20" s="2">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="I20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>1.9</v>
       </c>
@@ -6404,38 +6605,34 @@
         <v>0</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:I21" si="19">B20+D20-C19</f>
-        <v>3.0000000000000165E-3</v>
+        <f t="shared" ref="C21:H21" si="19">B20+D20-C19</f>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="19"/>
-        <v>5.9999999999999984E-3</v>
+        <v>-2.4749999999999994E-2</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="19"/>
-        <v>9.0000000000000149E-3</v>
+        <v>-3.0000000000000013E-2</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="19"/>
-        <v>1.7500000000000009E-2</v>
+        <v>-3.15E-2</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="19"/>
-        <v>2.1000000000000012E-2</v>
+        <v>-2.3999999999999994E-2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="19"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="19"/>
-        <v>1.5000000000000013E-2</v>
-      </c>
-      <c r="J21" s="2">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+      <c r="I21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -6443,53 +6640,49 @@
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:I22" si="20">B21+D21-C20</f>
-        <v>-6.0000000000000088E-3</v>
+        <f t="shared" ref="C22:H22" si="20">B21+D21-C20</f>
+        <v>-1.8750000000000003E-2</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="20"/>
-        <v>-1.1999999999999983E-2</v>
+        <v>-3.3000000000000015E-2</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="20"/>
-        <v>-7.9999999999999932E-3</v>
+        <v>-4.3499999999999997E-2</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-4.5000000000000005E-2</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="20"/>
-        <v>8.0000000000000002E-3</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="20"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="20"/>
-        <v>6.0000000000000192E-3</v>
-      </c>
-      <c r="J22" s="2">
+        <v>-2.0999999999999991E-2</v>
+      </c>
+      <c r="I22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -8440,7 +8633,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
